--- a/src/main/resources/persons.xlsx
+++ b/src/main/resources/persons.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">lastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthYear</t>
   </si>
   <si>
     <t xml:space="preserve">Jan</t>
@@ -64,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,10 +149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="350" zoomScaleNormal="350" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,37 +167,52 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1980</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1910</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1790</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1920</v>
       </c>
     </row>
   </sheetData>
